--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Taxrate.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Taxrate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\payroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5EE4FB-2665-4AB6-B699-73BE9347C14B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB088F7-B23E-407D-8004-A8AA38078D95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="1" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>company_code</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>OPR</t>
   </si>
 </sst>
 </file>
@@ -468,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1F2E37-426D-4143-AF13-B62D47D39A74}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D0CD11-1E44-4440-A68E-60866CCD6F42}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,6 +562,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Taxrate.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Taxrate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB088F7-B23E-407D-8004-A8AA38078D95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CB3EB-4688-4DC8-BBB3-7CE5F4D77CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="1" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>company_code</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>taxrate_tax</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>From
@@ -60,6 +57,15 @@
   </si>
   <si>
     <t>OPR</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +158,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -471,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1F2E37-426D-4143-AF13-B62D47D39A74}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D0CD11-1E44-4440-A68E-60866CCD6F42}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,26 +535,29 @@
     <col min="1" max="3" width="20.1796875" customWidth="1"/>
     <col min="4" max="4" width="17.08984375" customWidth="1"/>
     <col min="5" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="8" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -561,10 +573,16 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -577,6 +595,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>